--- a/2016년 수강료 계산 6월/생명과학수강료.xlsx
+++ b/2016년 수강료 계산 6월/생명과학수강료.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="119">
   <si>
     <t>*주야</t>
   </si>
@@ -449,28 +449,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -769,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -2466,7 +2469,9 @@
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G76" s="5"/>
+      <c r="G76" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="5" t="s">
@@ -2600,7 +2605,9 @@
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G82" s="5"/>
+      <c r="G82" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="5" t="s">
@@ -2646,7 +2653,9 @@
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G84" s="5"/>
+      <c r="G84" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="5" t="s">
@@ -2740,7 +2749,9 @@
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G88" s="5"/>
+      <c r="G88" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="5" t="s">
@@ -2762,7 +2773,9 @@
         <f t="shared" si="2"/>
         <v>16440</v>
       </c>
-      <c r="G89" s="5"/>
+      <c r="G89" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="5" t="s">
@@ -2850,6 +2863,9 @@
       <c r="F93" s="5">
         <f t="shared" si="2"/>
         <v>16440</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:7">
